--- a/Pyga_Crm_Framework/src/test/resources/testScriptdata.xlsx
+++ b/Pyga_Crm_Framework/src/test/resources/testScriptdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="216">
   <si>
     <t>TC_ID</t>
   </si>
